--- a/biology/Zoologie/Gobie_nageur/Gobie_nageur.xlsx
+++ b/biology/Zoologie/Gobie_nageur/Gobie_nageur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pomatoschistus flavescens (Anciennement Gobiusculus flavescens), le Gobie nageur, est une espèce de poissons marins de la famille des Gobiidae. Il est semi-pélagique, contrairement à la plupart des gobies qui préfèrent rester près du fond, d'où son nom de Gobie nageur.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente en Atlantique Nord-Est, à proximité des côtes de la Norvège, du Royaume-Uni de la France, de l'Espagne, du Portugal ainsi que des côtes d'une grande partie de la mer Baltique. Au printemps et en été, elle peut être présente en grande abondance très près des côtes où elle se reproduit dans les habitats propices (forêts de laminaires).
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pomatoschistus flavescens mesure à maturité entre 40mm et 60 mm en moyenne, en fonction des populations. Le mâle et la femelle sont généralement de taille similaire, mais les mâles peuvent être un peu plus grands. Le corps est roux ou brun verdâtre et présente des réticulations sombres. Une tache noire orne le milieu de son pédoncule caudal et, chez les mâles, une petite tache noire sous les nageoires pectorales. En période de reproduction, la femelle porte une coloration orange distinctive sur l'abdomen, souvent gonflé d'oeufs. Le mâle développe une nageoire dorsale de coloration rouge violacée et une nagoire anale alongée et sombre, ainsi que de petits points bleus lumineux le long de la ligne latérale.
 </t>
@@ -573,7 +589,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
